--- a/documents/요구사항.xlsx
+++ b/documents/요구사항.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="기능 목록" sheetId="1" r:id="rId1"/>
-    <sheet name="도메인모델 &amp; 테이블 설계" sheetId="2" r:id="rId2"/>
+    <sheet name="01. 간략 설계" sheetId="2" r:id="rId2"/>
+    <sheet name="02. 도메인 상세 설계" sheetId="3" r:id="rId3"/>
+    <sheet name="03. 테이블 설계" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>1. 회원 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +157,254 @@
   </si>
   <si>
     <t>* 주문 : 주문 상품 = 1:N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id : Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address : Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders : List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member : Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderItems : List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery : Delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderDate : date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : OrderStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item : Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order : Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockQuantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories : List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items : List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent : Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>child : List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order : Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address : Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status : DeliveryStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;Value Type&gt;&gt;
+Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Album</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Movie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ 多 : 多 관계는 JPA에서 사용하면 안됨 = 1 : 多 : 多 : 1 로 풀어내서 사용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ 가급적 양방향 관계는 사용 X는게 좋음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ 회원이 주문하는 주체라 생각할 수 있는데, 
+시스템 입장에서는 주문을 생성할 때 회원이 필요하다 생각하는 것이 맞음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ 쿼리 영역에서도 주문 내역이 필요하면, Order 테이블에 filtering조건이 Member인 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">즉, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>양방향 관계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가 아닌</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Order가 Member를 참조하는 단방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이면 되는데 예제를 위한 양방향.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +427,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -256,28 +524,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -294,6 +585,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,6 +891,287 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8162924" y="2381250"/>
+          <a:ext cx="142875" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="직선 연결선 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6410325" y="3871913"/>
+          <a:ext cx="2076450" cy="1033462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="이등변 삼각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3600000">
+          <a:off x="8258175" y="3805238"/>
+          <a:ext cx="142875" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>661989</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 연결선 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8453439" y="3848101"/>
+          <a:ext cx="2071686" cy="1047749"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="이등변 삼각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="-3600000">
+          <a:off x="8529637" y="3810000"/>
+          <a:ext cx="142875" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="이등변 삼각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="3867150"/>
           <a:ext cx="142875" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -955,145 +1578,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" activeCellId="1" sqref="L15 L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="L4" s="5" t="s">
+      <c r="C4" s="13"/>
+      <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="12">
+      <c r="C10" s="13"/>
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="4">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="7"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="7"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="I16" s="5" t="s">
+      <c r="C16" s="13"/>
+      <c r="I16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="L16" s="5" t="s">
+      <c r="J16" s="13"/>
+      <c r="L16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="O16" s="5" t="s">
+      <c r="M16" s="13"/>
+      <c r="O16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -1120,18 +1743,455 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B16:C17"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="L10:M11"/>
     <mergeCell ref="L4:M5"/>
     <mergeCell ref="I16:J17"/>
     <mergeCell ref="L16:M17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B16:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="L4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="L5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="L6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="L7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="L8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="D11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="11"/>
+      <c r="N12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="C15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="G16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="L16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="G17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="L17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="G19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="L19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="G20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="L20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="G21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="L21" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="E27" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="I27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="L27" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="O27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="21"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="I28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="L28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="O28" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="E29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="I29" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="L29" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="O29" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="E30" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="E31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="D11:J12"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>